--- a/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_g1.xlsx
+++ b/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367F40&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367ED0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367E60&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367DF0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367D80&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367D10&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367CA0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367C30&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367BC0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367B50&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367AE0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367A70&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367A00&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367990&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367920&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9738B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33678B0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367840&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9737D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33677D0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367760&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9736F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33676F0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367680&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367530&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9734C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33674C0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367450&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9733E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33673E0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367370&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367300&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367220&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9731B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33671B0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367140&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9730D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33670D0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E973060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367060&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366EA0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366D50&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366B90&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366A40&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9729D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366960&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9728F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33667A0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33666C0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366490&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33663B0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366340&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9722D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366260&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9721F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33661F0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366180&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366110&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9720A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33660A0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E972030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366030&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E971FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3365EE0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E971E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3365D90&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">

--- a/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_g1.xlsx
+++ b/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F94D0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9540&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL162</t>
+          <t>CHEMBL105442</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>O=C(NOCC1CC1)c1ccc(F)c(F)c1Nc1ccc(I)cc1Cl</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>O=C(NOCC1CC1)c1ccc(F)c(F)c1Nc1ccc(I)cc1Cl</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>466.54</v>
+        <v>478.66</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>69.45</v>
+        <v>50.36</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F95B0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL442235</t>
+          <t>CHEMBL414139</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cn1cc(C(N)=O)c(Nc2ccc(I)cc2F)cc1=O</t>
+          <t>COc1cc2c(Nc3ccc(Oc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cn1cc(C(N)=O)c(Nc2ccc(I)cc2F)cc1=O</t>
+          <t>COc1cc2c(Nc3ccc(Oc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>387.15</v>
+        <v>510.59</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>77.12</v>
+        <v>88.87</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9620&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL323515</t>
+          <t>CHEMBL162</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCCC1</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCCC1</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>549.1</v>
+        <v>466.54</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
         <v>8</v>
       </c>
-      <c r="J6" t="n">
-        <v>10</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>5</v>
       </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
       <c r="M6" t="n">
-        <v>88.23</v>
+        <v>69.45</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9690&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL201629</t>
+          <t>CHEMBL31806</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cn1cc(C(=O)NOCC2CC2)c(Nc2ccc(Br)cc2F)c(F)c1=O</t>
+          <t>COc1cc2ncc(C#N)c(Nc3ccc(Cc4ccccc4)cc3)c2cc1OC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cn1cc(C(=O)NOCC2CC2)c(Nc2ccc(Br)cc2F)c(F)c1=O</t>
+          <t>COc1cc2ncc(C#N)c(Nc3ccc(Cc4ccccc4)cc3)c2cc1OC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>428.23</v>
+        <v>395.46</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>72.36</v>
+        <v>67.17</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9700&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL188343</t>
+          <t>CHEMBL442235</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>c1nc2c(NC3CCCCC3)nc(Nc3ccc(N4CCOCC4)cc3)nc2[nH]1</t>
+          <t>Cn1cc(C(N)=O)c(Nc2ccc(I)cc2F)cc1=O</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>c1nc2c(NC3CCCCC3)nc(Nc3ccc(N4CCOCC4)cc3)nc2[nH]1</t>
+          <t>Cn1cc(C(N)=O)c(Nc2ccc(I)cc2F)cc1=O</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>393.5</v>
+        <v>387.15</v>
       </c>
       <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>90.98999999999999</v>
+        <v>77.12</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9770&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL485286</t>
+          <t>CHEMBL323515</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccnc(N3CCCC3)c2)cc1-c1ccc2c(C3CCNCC3)noc2c1</t>
+          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCCC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccnc(N3CCCC3)c2)cc1-c1ccc2c(C3CCNCC3)noc2c1</t>
+          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCCC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>481.6</v>
+        <v>549.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="n">
-        <v>6</v>
-      </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>83.29000000000001</v>
+        <v>88.23</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F97E0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL253116</t>
+          <t>CHEMBL201629</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CC(CO)NC(=N)c1c(O)nsc1Nc1ccc(Nc2ccccc2)cc1</t>
+          <t>Cn1cc(C(=O)NOCC2CC2)c(Nc2ccc(Br)cc2F)c(F)c1=O</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CC(CO)NC(=N)c1c(O)nsc1Nc1ccc(Nc2ccccc2)cc1</t>
+          <t>Cn1cc(C(=O)NOCC2CC2)c(Nc2ccc(Br)cc2F)c(F)c1=O</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>383.48</v>
+        <v>428.23</v>
       </c>
       <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
         <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>113.29</v>
+        <v>72.36</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9850&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL202385</t>
+          <t>CHEMBL188343</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1cn2ncc(C#N)c(Nc3ccc(Cc4ccccc4)cc3)c2c1C</t>
+          <t>c1nc2c(NC3CCCCC3)nc(Nc3ccc(N4CCOCC4)cc3)nc2[nH]1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1cn2ncc(C#N)c(Nc3ccc(Cc4ccccc4)cc3)c2c1C</t>
+          <t>c1nc2c(NC3CCCCC3)nc(Nc3ccc(N4CCOCC4)cc3)nc2[nH]1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>410.48</v>
+        <v>393.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
         <v>5</v>
       </c>
-      <c r="J11" t="n">
-        <v>6</v>
-      </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>79.42</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F98C0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL436137</t>
+          <t>CHEMBL485238</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cc1cccc(C)c1-c1cc(C)c2nc(Nc3ccc(OCCN4CCCC4)cc3)nnc2c1</t>
+          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CCN4CCCCC4)ccc23)cc1Cl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cc1cccc(C)c1-c1cc(C)c2nc(Nc3ccc(OCCN4CCCC4)cc3)nnc2c1</t>
+          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CCN4CCCCC4)ccc23)cc1Cl</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>453.59</v>
+        <v>529.11</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>63.17</v>
+        <v>69.77</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9930&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL80837</t>
+          <t>CHEMBL1170802</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cc1c(Cc2ccccc2)c(=O)oc2cc(OC(=O)N(C)C)c(Cl)cc12</t>
+          <t>CC(=O)n1cc(Nc2ccc(I)cc2F)c(C(=O)NOCCO)c1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cc1c(Cc2ccccc2)c(=O)oc2cc(OC(=O)N(C)C)c(Cl)cc12</t>
+          <t>CC(=O)n1cc(Nc2ccc(I)cc2F)c(C(=O)NOCCO)c1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>371.82</v>
+        <v>447.2</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>59.75</v>
+        <v>92.59</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F99A0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL100473</t>
+          <t>CHEMBL1170805</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N#CC(=C(/N)Sc1ccccc1N)/C(C#N)=C(/N)Sc1ccccc1N</t>
+          <t>CC(=O)c1cc(C(=O)NOC[C@@H](O)CO)c(Nc2ccc(I)cc2F)n1C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N#CC(=C(/N)Sc1ccccc1N)/C(C#N)=C(/N)Sc1ccccc1N</t>
+          <t>CC(=O)c1cc(C(=O)NOC[C@@H](O)CO)c(Nc2ccc(I)cc2F)n1C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,17 +1391,17 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>380.5</v>
+        <v>491.26</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
       <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
         <v>8</v>
       </c>
-      <c r="J14" t="n">
-        <v>5</v>
-      </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>151.66</v>
+        <v>112.82</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9A10&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL284774</t>
+          <t>CHEMBL37493</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>N#CC(c1ccccc1)C(N)Sc1ccccc1N</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccncc2)c1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N#CC(c1ccccc1)C(N)Sc1ccccc1N</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccncc2)c1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>269.37</v>
+        <v>374.47</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>75.83</v>
+        <v>108.95</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9A80&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL21156</t>
+          <t>CHEMBL214613</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1nc2c3ccc(F)cc3c3c(=O)[nH]ccc3c2[nH]1</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Oc2cccc(F)c2F)cc1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1nc2c3ccc(F)cc3c3c(=O)[nH]ccc3c2[nH]1</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Oc2cccc(F)c2F)cc1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>309.34</v>
+        <v>420.44</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>61.54</v>
+        <v>112.99</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9AF0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL401930</t>
+          <t>CHEMBL485286</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cc1cc(N2CCOCC2)cc2[nH]c(-c3c(NC[C@@H](O)c4cccc(Cl)c4)cc[nH]c3=O)nc12</t>
+          <t>Cc1ccc(NC(=O)c2ccnc(N3CCCC3)c2)cc1-c1ccc2c(C3CCNCC3)noc2c1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cc1cc(N2CCOCC2)cc2[nH]c(-c3c(NC[C@@H](O)c4cccc(Cl)c4)cc[nH]c3=O)nc12</t>
+          <t>Cc1ccc(NC(=O)c2ccnc(N3CCCC3)c2)cc1-c1ccc2c(C3CCNCC3)noc2c1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>479.97</v>
+        <v>481.6</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>6</v>
       </c>
       <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
         <v>6</v>
       </c>
-      <c r="K17" t="n">
-        <v>5</v>
-      </c>
       <c r="L17" t="n">
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>106.27</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33678B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9B60&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL199006</t>
+          <t>CHEMBL375609</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cc1c(Cc2ccccc2)c(=O)oc2cc(OC(=O)C3CC3)ccc12</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1cccc(Cl)c1Cl</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cc1c(Cc2ccccc2)c(=O)oc2cc(OC(=O)C3CC3)ccc12</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1cccc(Cl)c1Cl</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>334.37</v>
+        <v>361.25</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>56.51</v>
+        <v>103.76</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9BD0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL322395</t>
+          <t>CHEMBL485285</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2c(C#N)cnc3cc(-c4ccc(CN5CCOCC5)cc4)ccc23)c(Cl)cc1Cl</t>
+          <t>Cc1ccc(C(=O)Nc2cccc(N3CCOCC3)c2)cc1-c1ccc2c(C3CCNCC3)noc2c1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2c(C#N)cnc3cc(-c4ccc(CN5CCOCC5)cc4)ccc23)c(Cl)cc1Cl</t>
+          <t>Cc1ccc(C(=O)Nc2cccc(N3CCOCC3)c2)cc1-c1ccc2c(C3CCNCC3)noc2c1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>519.4299999999999</v>
+        <v>496.61</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>6</v>
       </c>
       <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="n">
         <v>6</v>
       </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70.41</v>
+        <v>79.63</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33677D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9C40&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL329492</t>
+          <t>CHEMBL253116</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N#CC(=C(/N)Sc1cccs1)/C(C#N)=C(\N)Sc1cccs1</t>
+          <t>CC(CO)NC(=N)c1c(O)nsc1Nc1ccc(Nc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N#CC(=C(/N)Sc1cccs1)/C(C#N)=C(\N)Sc1cccs1</t>
+          <t>CC(CO)NC(=N)c1c(O)nsc1Nc1ccc(Nc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>362.53</v>
+        <v>383.48</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
         <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>99.62</v>
+        <v>113.29</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9CB0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL377592</t>
+          <t>CHEMBL202385</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COC(=O)c1ccc(Nc2snc(O)c2C(=N)NCC2CCCCC2)cc1</t>
+          <t>CCOC(=O)c1cn2ncc(C#N)c(Nc3ccc(Cc4ccccc4)cc3)c2c1C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COC(=O)c1ccc(Nc2snc(O)c2C(=N)NCC2CCCCC2)cc1</t>
+          <t>CCOC(=O)c1cn2ncc(C#N)c(Nc3ccc(Cc4ccccc4)cc3)c2c1C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>388.49</v>
+        <v>410.48</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>107.33</v>
+        <v>79.42</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33676F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9D20&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL55934</t>
+          <t>CHEMBL436137</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O=C1C=CC(=O)c2ccccc21</t>
+          <t>Cc1cccc(C)c1-c1cc(C)c2nc(Nc3ccc(OCCN4CCCC4)cc3)nnc2c1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O=C1C=CC(=O)c2ccccc21</t>
+          <t>Cc1cccc(C)c1-c1cc(C)c2nc(Nc3ccc(OCCN4CCCC4)cc3)nnc2c1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>158.16</v>
+        <v>453.59</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>34.14</v>
+        <v>63.17</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9D90&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL404939</t>
+          <t>CHEMBL80837</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O=C1C(Cl)=C(N2C(=O)CCC2=O)C(=O)c2ccccc21</t>
+          <t>Cc1c(Cc2ccccc2)c(=O)oc2cc(OC(=O)N(C)C)c(Cl)cc12</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O=C1C(Cl)=C(N2C(=O)CCC2=O)C(=O)c2ccccc21</t>
+          <t>Cc1c(Cc2ccccc2)c(=O)oc2cc(OC(=O)N(C)C)c(Cl)cc12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>289.67</v>
+        <v>371.82</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2012,16 +2012,16 @@
         <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>71.52</v>
+        <v>59.75</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9E00&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL523559</t>
+          <t>CHEMBL100473</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cc1nnc(-c2ccc(-c3cc(C(=O)Nc4cccc(N5CCOCC5)c4)ccc3C)c(C)c2)o1</t>
+          <t>N#CC(=C(/N)Sc1ccccc1N)/C(C#N)=C(/N)Sc1ccccc1N</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cc1nnc(-c2ccc(-c3cc(C(=O)Nc4cccc(N5CCOCC5)c4)ccc3C)c(C)c2)o1</t>
+          <t>N#CC(=C(/N)Sc1ccccc1N)/C(C#N)=C(/N)Sc1ccccc1N</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>468.56</v>
+        <v>380.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>80.48999999999999</v>
+        <v>151.66</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33674C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9E70&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL380328</t>
+          <t>CHEMBL284774</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>N/C(=N\CC1CCCCC1)c1c(O)nsc1Nc1ccc(Cl)cc1Cl</t>
+          <t>N#CC(c1ccccc1)C(N)Sc1ccccc1N</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>N/C(=N\CC1CCCCC1)c1c(O)nsc1Nc1ccc(Cl)cc1Cl</t>
+          <t>N#CC(c1ccccc1)C(N)Sc1ccccc1N</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>399.35</v>
+        <v>269.37</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>83.53</v>
+        <v>75.83</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9EE0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL522892</t>
+          <t>CHEMBL21156</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc3nc(-c4c(N)c5c(F)cccc5[nH]c4=O)[nH]c3c2)CC1</t>
+          <t>CC(C)(C)c1nc2c3ccc(F)cc3c3c(=O)[nH]ccc3c2[nH]1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc3nc(-c4c(N)c5c(F)cccc5[nH]c4=O)[nH]c3c2)CC1</t>
+          <t>CC(C)(C)c1nc2c3ccc(F)cc3c3c(=O)[nH]ccc3c2[nH]1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>392.44</v>
+        <v>309.34</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>94.04000000000001</v>
+        <v>61.54</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33673E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9F50&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL245884</t>
+          <t>CHEMBL401930</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCN(C)C)cs4)cc3c21</t>
+          <t>Cc1cc(N2CCOCC2)cc2[nH]c(-c3c(NC[C@@H](O)c4cccc(Cl)c4)cc[nH]c3=O)nc12</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCN(C)C)cs4)cc3c21</t>
+          <t>Cc1cc(N2CCOCC2)cc2[nH]c(-c3c(NC[C@@H](O)c4cccc(Cl)c4)cc[nH]c3=O)nc12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>440.53</v>
+        <v>479.97</v>
       </c>
       <c r="H27" t="n">
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
         <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>119.22</v>
+        <v>106.27</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359F9FC0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL316510</t>
+          <t>CHEMBL199006</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N#CC(=C1/Nc2ccccc2S1)/C(C#N)=C1\Nc2ccccc2S1</t>
+          <t>Cc1c(Cc2ccccc2)c(=O)oc2cc(OC(=O)C3CC3)ccc12</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>N#CC(=C1/Nc2ccccc2S1)/C(C#N)=C1\Nc2ccccc2S1</t>
+          <t>Cc1c(Cc2ccccc2)c(=O)oc2cc(OC(=O)C3CC3)ccc12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>346.44</v>
+        <v>334.37</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>71.64</v>
+        <v>56.51</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA030&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL359106</t>
+          <t>CHEMBL495729</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,44 +2392,44 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NC1=N/C(=C2/CCNC(=O)c3[nH]c(Br)cc32)C(=O)N1</t>
+          <t>Cc1nnc(-c2ccc(-c3cc(NC(=O)c4ccnc(N5CCCC5)c4)ccc3C)c(C)c2)o1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NC1=N/C(=C2/CCNC(=O)c3[nH]c(Br)cc32)C(=O)N1</t>
+          <t>Cc1nnc(-c2ccc(-c3cc(NC(=O)c4ccnc(N5CCCC5)c4)ccc3C)c(C)c2)o1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>324.14</v>
+        <v>453.55</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>112.37</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA0A0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL1172521</t>
+          <t>CHEMBL322395</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,44 +2460,44 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CC(=O)c1cc(C(=O)N2CC(N)C2)c(Nc2ccc(I)cc2F)n1C</t>
+          <t>COc1cc(Nc2c(C#N)cnc3cc(-c4ccc(CN5CCOCC5)cc4)ccc23)c(Cl)cc1Cl</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CC(=O)c1cc(C(=O)N2CC(N)C2)c(Nc2ccc(I)cc2F)n1C</t>
+          <t>COc1cc(Nc2c(C#N)cnc3cc(-c4ccc(CN5CCOCC5)cc4)ccc23)c(Cl)cc1Cl</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>456.26</v>
+        <v>519.4299999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>80.36</v>
+        <v>70.41</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33671B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA110&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL95002</t>
+          <t>CHEMBL329492</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,44 +2528,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Oc4ccccc4)cc3)c(C#N)cnc2cc1OCCN1CCOCC1</t>
+          <t>N#CC(=C(/N)Sc1cccs1)/C(C#N)=C(\N)Sc1cccs1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Oc4ccccc4)cc3)c(C#N)cnc2cc1OCCN1CCOCC1</t>
+          <t>N#CC(=C(/N)Sc1cccs1)/C(C#N)=C(\N)Sc1cccs1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>496.57</v>
+        <v>362.53</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>88.87</v>
+        <v>99.62</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA180&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL383108</t>
+          <t>CHEMBL377592</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,44 +2596,44 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CNC(=O)Nc1cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c2c1C</t>
+          <t>COC(=O)c1ccc(Nc2snc(O)c2C(=N)NCC2CCCCC2)cc1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CNC(=O)Nc1cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c2c1C</t>
+          <t>COC(=O)c1ccc(Nc2snc(O)c2C(=N)NCC2CCCCC2)cc1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>412.45</v>
+        <v>388.49</v>
       </c>
       <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4</v>
-      </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>103.48</v>
+        <v>107.33</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33670D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA1F0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL217310</t>
+          <t>CHEMBL201384</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,44 +2664,44 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Cc2ccccc2)cc1</t>
+          <t>Cc1c(Nc2ccccc2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Cc2ccccc2)cc1</t>
+          <t>Cc1c(Nc2ccccc2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>382.49</v>
+        <v>431.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
         <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>103.76</v>
+        <v>74.38</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3367060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA260&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL573577</t>
+          <t>CHEMBL55934</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,44 +2732,44 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1C(=O)NCC(O)CN1CCOCC1</t>
+          <t>O=C1C=CC(=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1C(=O)NCC(O)CN1CCOCC1</t>
+          <t>O=C1C=CC(=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>442.49</v>
+        <v>158.16</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>106.69</v>
+        <v>34.14</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA2D0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL30597</t>
+          <t>CHEMBL404939</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,44 +2800,44 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C#N)c(Nc3ccc(SC)cc3)c2cc1OC</t>
+          <t>O=C1C(Cl)=C(N2C(=O)CCC2=O)C(=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C#N)c(Nc3ccc(SC)cc3)c2cc1OC</t>
+          <t>O=C1C(Cl)=C(N2C(=O)CCC2=O)C(=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>351.43</v>
+        <v>289.67</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>67.17</v>
+        <v>71.52</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA340&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL38216</t>
+          <t>CHEMBL523559</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,29 +2868,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccco2)c1</t>
+          <t>Cc1nnc(-c2ccc(-c3cc(C(=O)Nc4cccc(N5CCOCC5)c4)ccc3C)c(C)c2)o1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccco2)c1</t>
+          <t>Cc1nnc(-c2ccc(-c3cc(C(=O)Nc4cccc(N5CCOCC5)c4)ccc3C)c(C)c2)o1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>363.44</v>
+        <v>468.56</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>6</v>
@@ -2899,13 +2899,13 @@
         <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>109.2</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA3B0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL285905</t>
+          <t>CHEMBL422940</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,26 +2936,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccccc1Oc1ccccc1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(=O)c2ccccc2)c1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccccc1Oc1ccccc1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(=O)c2ccccc2)c1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>359.45</v>
+        <v>371.47</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
@@ -2973,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>85.06</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA420&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL37548</t>
+          <t>CHEMBL380328</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,32 +3004,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccc(C(=O)c2ccccc2)cc1</t>
+          <t>N/C(=N\CC1CCCCC1)c1c(O)nsc1Nc1ccc(Cl)cc1Cl</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccc(C(=O)c2ccccc2)cc1</t>
+          <t>N/C(=N\CC1CCCCC1)c1c(O)nsc1Nc1ccc(Cl)cc1Cl</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>371.47</v>
+        <v>399.35</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>5</v>
@@ -3038,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>92.90000000000001</v>
+        <v>83.53</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA490&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL371658</t>
+          <t>CHEMBL522892</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,35 +3072,35 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Cc2ccccc2)cc1</t>
+          <t>CN1CCN(c2ccc3nc(-c4c(N)c5c(F)cccc5[nH]c4=O)[nH]c3c2)CC1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Cc2ccccc2)cc1</t>
+          <t>CN1CCN(c2ccc3nc(-c4c(N)c5c(F)cccc5[nH]c4=O)[nH]c3c2)CC1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>464.57</v>
+        <v>392.44</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
         <v>5</v>
@@ -3109,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>86.09999999999999</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33667A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA500&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL214636</t>
+          <t>CHEMBL440356</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,44 +3140,44 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N/C(=N\CCCN1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>O=C1CCNC(=O)c2[nH]c(Br)cc21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N/C(=N\CCCN1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>O=C1CCNC(=O)c2[nH]c(Br)cc21</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>522.46</v>
+        <v>243.06</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>105.23</v>
+        <v>61.96</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33666C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA570&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL3747066</t>
+          <t>CHEMBL245884</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,81 +3208,55 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)Nc1cccc(Oc2cc(F)c(F)c(Nc3ccc(I)cc3F)c2C(N)=O)c1</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCN(C)C)cs4)cc3c21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)Nc1cccc(Oc2cc(F)c(F)c(Nc3ccc(I)cc3F)c2C(N)=O)c1</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCN(C)C)cs4)cc3c21</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>591.35</v>
+        <v>440.53</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
         <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>110.52</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>12</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>CHEMBL3750088</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 (unknown origin) using biotinylated ERK1 as substrate incubated for 2 hrs by fluorescence analysis</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>119.22</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA5E0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3294,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL3753341</t>
+          <t>CHEMBL316510</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3302,81 +3276,55 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(-c2cc(C3CC3)on2)c2c(N)ncnc21</t>
+          <t>N#CC(=C1/Nc2ccccc2S1)/C(C#N)=C1\Nc2ccccc2S1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(-c2cc(C3CC3)on2)c2c(N)ncnc21</t>
+          <t>N#CC(=C1/Nc2ccccc2S1)/C(C#N)=C1\Nc2ccccc2S1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>284.32</v>
+        <v>346.44</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
         <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>142</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>CHEMBL3757137</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human MEK1 by radiometric assay in presence of [gamma-33P]-ATP</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>71.64</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33663B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA650&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3388,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL3400291</t>
+          <t>CHEMBL37646</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3396,81 +3344,55 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cc1c(Cc2cccc(N(C)S(=O)(=O)CCCNCCCCCC(=O)N3CCN(c4nc(N5CCOCC5)nc(-n5c(C(F)F)nc6ccccc65)n4)CC3)c2)c(=O)oc2cc(OC(=O)N(C)C)ccc12</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccc(Oc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cc1c(Cc2cccc(N(C)S(=O)(=O)CCCNCCCCCC(=O)N3CCN(c4nc(N5CCOCC5)nc(-n5c(C(F)F)nc6ccccc65)n4)CC3)c2)c(=O)oc2cc(OC(=O)N(C)C)ccc12</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccc(Oc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1000.14</v>
+        <v>359.45</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>201.67</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>473</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL3406097</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>85.06</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA6C0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3482,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL1762110</t>
+          <t>CHEMBL359106</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3490,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CC(=O)NC[C@H]1CC[C@H](c2nc(-c3cc4ccccc4[nH]3)c3c(N)nccn32)CC1</t>
+          <t>NC1=N/C(=C2/CCNC(=O)c3[nH]c(Br)cc32)C(=O)N1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CC(=O)NC[C@H]1CC[C@H](c2nc(-c3cc4ccccc4[nH]3)c3c(N)nccn32)CC1</t>
+          <t>NC1=N/C(=C2/CCNC(=O)c3[nH]c(Br)cc32)C(=O)N1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3505,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>402.5</v>
+        <v>324.14</v>
       </c>
       <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>960</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL1763004</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>112.37</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA730&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3576,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL2006765</t>
+          <t>CHEMBL1172521</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3584,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CCCNC(=O)c1ccc(Nc2nc(NCC(F)(F)F)c3cc[nH]c3n2)cc1</t>
+          <t>CC(=O)c1cc(C(=O)N2CC(N)C2)c(Nc2ccc(I)cc2F)n1C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CCCNC(=O)c1ccc(Nc2nc(NCC(F)(F)F)c3cc[nH]c3n2)cc1</t>
+          <t>CC(=O)c1cc(C(=O)N2CC(N)C2)c(Nc2ccc(I)cc2F)n1C</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3599,66 +3495,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>392.39</v>
+        <v>456.26</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>94.73</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>139</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL4007726</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 (unknown origin) after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>80.36</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33661F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA7A0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3670,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL1908397</t>
+          <t>CHEMBL202356</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3678,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
+          <t>COc1ccccc1Oc1ccc(Nc2c(C#N)cnn3cc(NC(=O)NCCN4CCOCC4)c(C)c23)cc1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
+          <t>COc1ccccc1Oc1ccc(Nc2c(C#N)cnn3cc(NC(=O)NCCN4CCOCC4)c(C)c23)cc1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3693,66 +3563,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>332.41</v>
+        <v>541.61</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>530</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>125.18</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA810&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3764,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL1908395</t>
+          <t>CHEMBL573577</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3772,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CN(C)CC(=O)N1CCC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)CC1</t>
+          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1C(=O)NCC(O)CN1CCOCC1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CN(C)CC(=O)N1CCC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)CC1</t>
+          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1C(=O)NCC(O)CN1CCOCC1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3787,14 +3631,14 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>460.58</v>
+        <v>442.49</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
         <v>5</v>
@@ -3809,44 +3653,18 @@
         <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>105.12</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>200</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>106.69</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA880&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3858,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL1230609</t>
+          <t>CHEMBL217130</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3866,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>COc1cc2c(Oc3ccc(NC(=O)C4(C(=O)Nc5ccc(F)cc5)CC4)cc3F)ccnc2cc1OCCCN1CCOCC1</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(C(=O)c2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>COc1cc2c(Oc3ccc(NC(=O)C4(C(=O)Nc5ccc(F)cc5)CC4)cc3F)ccnc2cc1OCCCN1CCOCC1</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(C(=O)c2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3881,66 +3699,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>632.66</v>
+        <v>396.47</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>111.25</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>12</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>120.83</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33660A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA8F0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3952,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL502835</t>
+          <t>CHEMBL201833</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3960,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>COC(=O)c1ccc2c(c1)NC(=O)/C2=C(\Nc1ccc(N(C)C(=O)CN2CCN(C)CC2)cc1)c1ccccc1</t>
+          <t>Cc1c(C(=O)NCCN2CCOCC2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>COC(=O)c1ccc2c(c1)NC(=O)/C2=C(\Nc1ccc(N(C)C(=O)CN2CCN(C)CC2)cc1)c1ccccc1</t>
+          <t>Cc1c(C(=O)NCCN2CCOCC2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3975,11 +3767,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>539.64</v>
+        <v>496.57</v>
       </c>
       <c r="H49" t="n">
         <v>2</v>
@@ -3988,53 +3780,27 @@
         <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
         <v>5</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>94.22</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>10</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL1908590</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Binding constant for MEK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>103.92</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3366030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA960&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4046,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL1421</t>
+          <t>CHEMBL371658</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4054,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cc1nc(Nc2ncc(C(=O)Nc3c(C)cccc3Cl)s2)cc(N2CCN(CCO)CC2)n1</t>
+          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Cc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cc1nc(Nc2ncc(C(=O)Nc3c(C)cccc3Cl)s2)cc(N2CCN(CCO)CC2)n1</t>
+          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Cc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4069,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>488.02</v>
+        <v>464.57</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
         <v>8</v>
       </c>
-      <c r="J50" t="n">
-        <v>7</v>
-      </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>106.51</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL1061906</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Binding constant for full-length MEK1</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>86.09999999999999</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3365EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FA9D0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4140,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL603469</t>
+          <t>CHEMBL214636</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4148,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
+          <t>N/C(=N\CCCN1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
+          <t>N/C(=N\CCCN1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4163,66 +3903,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>439.47</v>
+        <v>522.46</v>
       </c>
       <c r="H51" t="n">
         <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1244505</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Binding affinity to MEK1</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>105.23</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3365D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A1359FAA40&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
